--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H2">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I2">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J2">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>13.63614208264534</v>
+        <v>6.206132172187</v>
       </c>
       <c r="R2">
-        <v>122.725278743808</v>
+        <v>55.855189549683</v>
       </c>
       <c r="S2">
-        <v>0.002270152386121829</v>
+        <v>0.006096051608967534</v>
       </c>
       <c r="T2">
-        <v>0.003686772552152796</v>
+        <v>0.009021110280396453</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H3">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I3">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J3">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>14.59263614048</v>
+        <v>7.528790092223333</v>
       </c>
       <c r="R3">
-        <v>131.33372526432</v>
+        <v>67.75911083001</v>
       </c>
       <c r="S3">
-        <v>0.002429390039597752</v>
+        <v>0.007395249034650105</v>
       </c>
       <c r="T3">
-        <v>0.003945377663286839</v>
+        <v>0.01094369952420285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H4">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I4">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J4">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>7.327439335637333</v>
+        <v>4.250375104076889</v>
       </c>
       <c r="R4">
-        <v>65.946954020736</v>
+        <v>38.253375936692</v>
       </c>
       <c r="S4">
-        <v>0.001219876105070113</v>
+        <v>0.004174984559310921</v>
       </c>
       <c r="T4">
-        <v>0.001981103017001694</v>
+        <v>0.006178260707814947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H5">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I5">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J5">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>16.698129357648</v>
+        <v>4.635354385095834</v>
       </c>
       <c r="R5">
-        <v>100.188776145888</v>
+        <v>27.812126310575</v>
       </c>
       <c r="S5">
-        <v>0.002779913701051858</v>
+        <v>0.004553135314138897</v>
       </c>
       <c r="T5">
-        <v>0.003009756699754712</v>
+        <v>0.004491905955432154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09865600000000001</v>
+        <v>0.05089966666666667</v>
       </c>
       <c r="H6">
-        <v>0.295968</v>
+        <v>0.152699</v>
       </c>
       <c r="I6">
-        <v>0.01009304870291239</v>
+        <v>0.02671091810242436</v>
       </c>
       <c r="J6">
-        <v>0.01488643315542961</v>
+        <v>0.03728162213961778</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>8.371647620938669</v>
+        <v>4.57260362179</v>
       </c>
       <c r="R6">
-        <v>75.34482858844801</v>
+        <v>41.15343259611</v>
       </c>
       <c r="S6">
-        <v>0.001393716471070842</v>
+        <v>0.004491497585356903</v>
       </c>
       <c r="T6">
-        <v>0.002263423223233563</v>
+        <v>0.006646645671771379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J7">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>32.31212060077156</v>
+        <v>28.503850316812</v>
       </c>
       <c r="R7">
-        <v>290.8090854069441</v>
+        <v>256.534652851308</v>
       </c>
       <c r="S7">
-        <v>0.005379339496312122</v>
+        <v>0.02799826651521979</v>
       </c>
       <c r="T7">
-        <v>0.008736154156415585</v>
+        <v>0.0414326298553937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J8">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>34.57862319097334</v>
+        <v>34.57862319097333</v>
       </c>
       <c r="R8">
         <v>311.20760871876</v>
       </c>
       <c r="S8">
-        <v>0.00575666808618112</v>
+        <v>0.03396528879676324</v>
       </c>
       <c r="T8">
-        <v>0.009348943278756417</v>
+        <v>0.05026279887302497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J9">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>17.36305635956089</v>
+        <v>19.52134637091022</v>
       </c>
       <c r="R9">
-        <v>156.267507236048</v>
+        <v>175.692117338192</v>
       </c>
       <c r="S9">
-        <v>0.002890611111715428</v>
+        <v>0.01917508871095536</v>
       </c>
       <c r="T9">
-        <v>0.00469440984260358</v>
+        <v>0.02837584078905304</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I10">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J10">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>39.567787306814</v>
+        <v>21.28949946478334</v>
       </c>
       <c r="R10">
-        <v>237.406723840884</v>
+        <v>127.7369967887</v>
       </c>
       <c r="S10">
-        <v>0.006587266854783265</v>
+        <v>0.02091187939052088</v>
       </c>
       <c r="T10">
-        <v>0.00713190144778751</v>
+        <v>0.02063066197085443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7013240000000001</v>
       </c>
       <c r="I11">
-        <v>0.02391642775070728</v>
+        <v>0.1226793098007496</v>
       </c>
       <c r="J11">
-        <v>0.03527480283780177</v>
+        <v>0.1712289953794413</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>19.83740605777378</v>
+        <v>21.00129445804</v>
       </c>
       <c r="R11">
-        <v>178.536654519964</v>
+        <v>189.01165012236</v>
       </c>
       <c r="S11">
-        <v>0.003302542201715345</v>
+        <v>0.02062878638729032</v>
       </c>
       <c r="T11">
-        <v>0.005363394112238673</v>
+        <v>0.03052706389111514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H12">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I12">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J12">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>1305.094666368393</v>
+        <v>197.634414973839</v>
       </c>
       <c r="R12">
-        <v>7830.56799821036</v>
+        <v>1185.806489843034</v>
       </c>
       <c r="S12">
-        <v>0.2172728732961634</v>
+        <v>0.1941288970267078</v>
       </c>
       <c r="T12">
-        <v>0.2352369736624013</v>
+        <v>0.1915183029961544</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H13">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I13">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J13">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>1396.639275226775</v>
+        <v>239.75448541133</v>
       </c>
       <c r="R13">
-        <v>8379.83565136065</v>
+        <v>1438.52691246798</v>
       </c>
       <c r="S13">
-        <v>0.2325132698083805</v>
+        <v>0.2355018675075814</v>
       </c>
       <c r="T13">
-        <v>0.2517374446994006</v>
+        <v>0.2323349007194536</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H14">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I14">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J14">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>701.2982071556033</v>
+        <v>135.3532882973693</v>
       </c>
       <c r="R14">
-        <v>4207.78924293362</v>
+        <v>812.1197297842159</v>
       </c>
       <c r="S14">
-        <v>0.1167525087893778</v>
+        <v>0.1329524747478038</v>
       </c>
       <c r="T14">
-        <v>0.1264055950402489</v>
+        <v>0.1311645650535754</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H15">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I15">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J15">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>1598.152866911771</v>
+        <v>147.6129619347125</v>
       </c>
       <c r="R15">
-        <v>6392.611467647085</v>
+        <v>590.45184773885</v>
       </c>
       <c r="S15">
-        <v>0.2660613626800359</v>
+        <v>0.144994693819011</v>
       </c>
       <c r="T15">
-        <v>0.1920395271189195</v>
+        <v>0.09536322903314276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.4422175</v>
+        <v>1.620901</v>
       </c>
       <c r="H16">
-        <v>18.884435</v>
+        <v>3.241802</v>
       </c>
       <c r="I16">
-        <v>0.9659905235463803</v>
+        <v>0.8506097720968261</v>
       </c>
       <c r="J16">
-        <v>0.9498387640067686</v>
+        <v>0.791489382480941</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>801.2378129080893</v>
+        <v>145.61466250263</v>
       </c>
       <c r="R16">
-        <v>4807.426877448535</v>
+        <v>873.6879750157799</v>
       </c>
       <c r="S16">
-        <v>0.1333905089724228</v>
+        <v>0.1430318389957221</v>
       </c>
       <c r="T16">
-        <v>0.1444192234857982</v>
+        <v>0.1411083846786148</v>
       </c>
     </row>
   </sheetData>
